--- a/Yearly_Forecast_Expenditure.xlsx
+++ b/Yearly_Forecast_Expenditure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maico\OneDrive - Universidad Nacional de Colombia\Oliver Pardo\VAR_VEC-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1FBD809-3875-4A42-9C74-FCFF3775A1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E745283E-EFC1-4155-822F-BC1E14BD8D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Expenditures" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -166,10 +166,10 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -178,8 +178,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3202,7 +3202,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Personal Emoluments'!$C$1</c15:sqref>
@@ -3237,7 +3237,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Personal Emoluments'!$A$2:$A$26</c15:sqref>
@@ -3327,7 +3327,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Personal Emoluments'!$C$2:$C$26</c15:sqref>
@@ -3416,7 +3416,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-637E-4FF3-AD4F-3F128BF0C685}"/>
                   </c:ext>
@@ -4566,7 +4566,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Pensions and Ex Gratia'!$C$1</c15:sqref>
@@ -4601,7 +4601,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Pensions and Ex Gratia'!$A$2:$A$26</c15:sqref>
@@ -4691,7 +4691,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Pensions and Ex Gratia'!$C$2:$C$26</c15:sqref>
@@ -4780,7 +4780,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-6C61-4A07-B8E3-889630CF99FF}"/>
                   </c:ext>
@@ -4995,6 +4995,38 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="1" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Goods and Services</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5254,8 +5286,12 @@
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -5461,8 +5497,12 @@
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -5897,7 +5937,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Goods and Services'!$C$1</c15:sqref>
@@ -5932,7 +5972,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Goods and Services'!$A$2:$A$26</c15:sqref>
@@ -6022,7 +6062,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Goods and Services'!$C$2:$C$26</c15:sqref>
@@ -6111,7 +6151,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-D464-43B3-9D40-A38DEC4B16DB}"/>
                   </c:ext>
@@ -7261,7 +7301,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Debt service interest and other'!$C$1</c15:sqref>
@@ -7296,7 +7336,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Debt service interest and other'!$A$2:$A$26</c15:sqref>
@@ -7386,7 +7426,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Debt service interest and other'!$C$2:$C$26</c15:sqref>
@@ -7475,7 +7515,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-C3FD-4A0E-9872-C3BFA2DE9553}"/>
                   </c:ext>
@@ -11476,8 +11516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:E26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13372,8 +13412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51EB450-8DD7-46E3-9D74-B2E87622F6D0}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13846,7 +13886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86AD37F-0356-4FC7-BF0C-874009239031}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="97" zoomScaleNormal="265" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
